--- a/data/surge/surgeData232.xlsx
+++ b/data/surge/surgeData232.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_232_Sheyenne/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBEAULIE\Environmental Protection Agency (EPA)\SuRGE Survey of Reservoir Greenhouse gas Emissions - Documents\data\CIN\CH4_232_Sheyenne\dataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="6_{FE973EF1-764D-4877-8157-F16148D9B448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE0CC2E-B5A9-4EEC-BB3B-99068A5F9E82}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100B463F-3697-4A10-85A0-8FA795D0FF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1649,75 +1649,72 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="7" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="66" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>54</v>
       </c>
@@ -1799,7 +1796,7 @@
       <c r="BO1" s="31"/>
       <c r="BP1" s="31"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2002,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>232</v>
       </c>
@@ -2109,7 +2106,7 @@
         <v>0.92943287037037037</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>232</v>
       </c>
@@ -2202,7 +2199,7 @@
       </c>
       <c r="BO4" s="27"/>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>232</v>
       </c>
@@ -2298,7 +2295,7 @@
       </c>
       <c r="BO5" s="27"/>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>232</v>
       </c>
@@ -2309,10 +2306,10 @@
         <v>207</v>
       </c>
       <c r="D6">
-        <v>47.788296000000003</v>
+        <v>47.738290300000003</v>
       </c>
       <c r="E6">
-        <v>99.50027</v>
+        <v>99.949858199999994</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>187</v>
@@ -2394,7 +2391,7 @@
       </c>
       <c r="BO6" s="27"/>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>232</v>
       </c>
@@ -2490,7 +2487,7 @@
       </c>
       <c r="BO7" s="27"/>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>232</v>
       </c>
@@ -2586,7 +2583,7 @@
       </c>
       <c r="BO8" s="27"/>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>232</v>
       </c>
@@ -2682,7 +2679,7 @@
       </c>
       <c r="BO9" s="27"/>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>232</v>
       </c>
@@ -2775,7 +2772,7 @@
       </c>
       <c r="BO10" s="27"/>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>232</v>
       </c>
@@ -2853,7 +2850,7 @@
       </c>
       <c r="BO11" s="27"/>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>232</v>
       </c>
@@ -2949,7 +2946,7 @@
       </c>
       <c r="BO12" s="27"/>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>232</v>
       </c>
@@ -3045,7 +3042,7 @@
       </c>
       <c r="BO13" s="27"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>232</v>
       </c>
@@ -3141,7 +3138,7 @@
       </c>
       <c r="BO14" s="27"/>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>232</v>
       </c>
@@ -3252,7 +3249,7 @@
       </c>
       <c r="BO15" s="27"/>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>232</v>
       </c>
@@ -3345,7 +3342,7 @@
       </c>
       <c r="BO16" s="27"/>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>232</v>
       </c>
@@ -3435,7 +3432,7 @@
       </c>
       <c r="BO17" s="27"/>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>232</v>
       </c>
@@ -3446,7 +3443,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <v>232</v>
       </c>
@@ -3457,7 +3454,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>232</v>
       </c>
@@ -3491,14 +3488,14 @@
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -3509,7 +3506,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3517,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3531,7 +3528,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3542,7 +3539,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3553,7 +3550,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3564,7 +3561,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3575,7 +3572,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3586,7 +3583,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3597,7 +3594,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3608,7 +3605,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3619,7 +3616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3630,7 +3627,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3641,7 +3638,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3649,7 +3646,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3660,7 +3657,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3668,7 +3665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3679,7 +3676,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3687,7 +3684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3698,7 +3695,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3709,7 +3706,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3720,7 +3717,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3731,7 +3728,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3742,7 +3739,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3753,7 +3750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3764,7 +3761,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3775,7 +3772,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3786,7 +3783,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3797,7 +3794,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3808,7 +3805,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -3819,7 +3816,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3830,7 +3827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3838,7 +3835,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3846,7 +3843,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3854,7 +3851,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3862,7 +3859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3870,7 +3867,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -3878,7 +3875,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>154</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -3894,7 +3891,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -3902,7 +3899,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -3910,7 +3907,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -3918,7 +3915,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -3926,7 +3923,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -3937,7 +3934,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -3948,7 +3945,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -3959,7 +3956,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3970,7 +3967,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3981,7 +3978,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -3992,7 +3989,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -4003,7 +4000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -4011,7 +4008,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -4019,7 +4016,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -4027,7 +4024,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -4035,7 +4032,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -4043,7 +4040,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -4051,7 +4048,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>143</v>
       </c>
@@ -4059,7 +4056,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -4067,7 +4064,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>145</v>
       </c>
@@ -4075,7 +4072,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -4083,7 +4080,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -4091,7 +4088,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>147</v>
       </c>
@@ -4099,7 +4096,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4121,7 +4118,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4132,7 +4129,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -4143,7 +4140,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -4154,7 +4151,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -4165,7 +4162,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -4189,17 +4186,17 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
@@ -4215,7 +4212,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4249,7 +4246,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>166</v>
       </c>
@@ -4278,7 +4275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>166</v>
       </c>
@@ -4307,7 +4304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>166</v>
       </c>
@@ -4336,7 +4333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>166</v>
       </c>
@@ -4365,7 +4362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>166</v>
       </c>
@@ -4394,7 +4391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>166</v>
       </c>
@@ -4441,14 +4438,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -4459,7 +4456,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4470,7 +4467,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4481,7 +4478,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4492,7 +4489,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4503,7 +4500,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4514,7 +4511,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4522,7 +4519,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>123</v>
       </c>
@@ -4533,7 +4530,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
@@ -4544,7 +4541,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>125</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>158</v>
       </c>
@@ -4572,62 +4569,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5098,23 +5039,86 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D3D16A-0C07-4E34-A6CC-72B6C67960C1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5135,6 +5139,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D3D16A-0C07-4E34-A6CC-72B6C67960C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>